--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_233.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_233.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,642 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_218</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[['G:7', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[('0:00:56.280000', '0:01:02.780000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:35.997000', '0:00:42.131000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1253561253561253</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min', 'D:maj/A']]</t>
-        </is>
+          <t>jaah_36</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_20</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08260869565217391</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min', 'A']]</t>
+          <t>[['D:7', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(28.8, 39.06)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(40.296348, 46.066507)]</t>
+          <t>[('0:00:54.890000', '0:01:01.210000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:08.860000', '0:00:14.120000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_222</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.08076923076923077</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'B:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.28, 15.8)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.411247, 13.974784)]</t>
+          <t>[('0:00:07.140000', '0:00:22.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1202898550724638</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min'], ['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.91585, 14.867142)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:21.940000', '0:00:27.520000'), ('0:04:02.220000', '0:04:06.980000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:02.580000', '0:00:07.080000'), ('0:00:18.920000', '0:00:21.940000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'A'], ['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1702898550724637</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F'], ['Eb', 'F', 'Bb']]</t>
+          <t>[['C#:7', 'F#:maj', 'C#:maj', 'F#:maj'], ['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.734, 8.399), (44.836, 49.319)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222), (44.917324, 48.272607)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:49.480000', '0:00:52.820000'), ('0:00:48.180000', '0:00:52.180000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:09.840000', '0:00:12.580000'), ('0:00:09.240000', '0:00:11.880000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'C#:maj', 'F#:maj'], ['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(45.82, 49.08), (44.66, 48.48)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.18, 10.48), (7.62, 9.86)]</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1079545454545455</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.801, 27.165)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(62.09653, 72.37136)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:03.840000', '0:01:07.540000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1726973684210526</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(53.176848, 58.331678)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(5.776, 9.009)]</t>
+          <t>[('0:00:17.360000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(49.0, 56.8)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.1, 27.92)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3576923076923077</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(23.586235, 28.578526)]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(61.32, 63.7)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.8, 10.54)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_64</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03591323930306981</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Db:7', 'Gb:maj6', 'Gb:maj6'], ['Db:7/3', 'Gb:maj6', 'Ab:7'], ['Eb:min7', 'Ab:7', 'Db:7'], ['Eb:min7', 'Ab:7', 'Db:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4857142857142857</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj6', 'D:min7'], ['C:7', 'F:maj6', 'G:7'], ['F:maj6', 'G:7', 'C:7'], ['D:min7', 'G:7', 'C:maj6']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(24.73, 27.56), (37.19, 38.86), (53.25, 54.92), (35.45, 37.19)]</t>
+          <t>[['E', 'A', 'E', 'B:7']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(48.09, 52.42), (44.22, 48.09), (44.78, 49.17), (20.73, 24.03)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:01.320000', '0:01:04.040000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:40.569342', '0:01:53.665396')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05879120879120879</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:7/D#', 'A#:maj/D']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01), (45.01, 49.44)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.38, 12.5), (56.44, 65.46)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(17.839297, 22.785147)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(26.041712, 37.10602)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07570690179385832</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_269</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.38, 24.82)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(35.888, 38.359)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
